--- a/natmiOut/YoungD4/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H2">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I2">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J2">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.67625449008554</v>
+        <v>6.291888333333334</v>
       </c>
       <c r="N2">
-        <v>5.67625449008554</v>
+        <v>18.875665</v>
       </c>
       <c r="O2">
-        <v>0.08144496604253573</v>
+        <v>0.08878690568774233</v>
       </c>
       <c r="P2">
-        <v>0.08144496604253573</v>
+        <v>0.08878690568774233</v>
       </c>
       <c r="Q2">
-        <v>716.1478641435458</v>
+        <v>798.6407975381405</v>
       </c>
       <c r="R2">
-        <v>716.1478641435458</v>
+        <v>7187.767177843265</v>
       </c>
       <c r="S2">
-        <v>0.01639639060438108</v>
+        <v>0.01752026558522949</v>
       </c>
       <c r="T2">
-        <v>0.01639639060438108</v>
+        <v>0.0175202655852295</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H3">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I3">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J3">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.28547435973388</v>
+        <v>2.300815</v>
       </c>
       <c r="N3">
-        <v>2.28547435973388</v>
+        <v>6.902445</v>
       </c>
       <c r="O3">
-        <v>0.0327928182122093</v>
+        <v>0.03246755720817405</v>
       </c>
       <c r="P3">
-        <v>0.0327928182122093</v>
+        <v>0.03246755720817405</v>
       </c>
       <c r="Q3">
-        <v>288.3481676406637</v>
+        <v>292.0466208614716</v>
       </c>
       <c r="R3">
-        <v>288.3481676406637</v>
+        <v>2628.419587753245</v>
       </c>
       <c r="S3">
-        <v>0.006601805888715488</v>
+        <v>0.006406803129184555</v>
       </c>
       <c r="T3">
-        <v>0.006601805888715488</v>
+        <v>0.006406803129184557</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H4">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I4">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J4">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.4359169460722</v>
+        <v>26.47580733333334</v>
       </c>
       <c r="N4">
-        <v>26.4359169460722</v>
+        <v>79.42742200000001</v>
       </c>
       <c r="O4">
-        <v>0.3793121611683938</v>
+        <v>0.3736088252326215</v>
       </c>
       <c r="P4">
-        <v>0.3793121611683938</v>
+        <v>0.3736088252326215</v>
       </c>
       <c r="Q4">
-        <v>3335.302441191369</v>
+        <v>3360.622243109234</v>
       </c>
       <c r="R4">
-        <v>3335.302441191369</v>
+        <v>30245.6001879831</v>
       </c>
       <c r="S4">
-        <v>0.07636261217495989</v>
+        <v>0.07372400009165769</v>
       </c>
       <c r="T4">
-        <v>0.07636261217495989</v>
+        <v>0.07372400009165772</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H5">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I5">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J5">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.6369665049948</v>
+        <v>31.73921966666667</v>
       </c>
       <c r="N5">
-        <v>31.6369665049948</v>
+        <v>95.217659</v>
       </c>
       <c r="O5">
-        <v>0.453938713845318</v>
+        <v>0.4478825678163185</v>
       </c>
       <c r="P5">
-        <v>0.453938713845318</v>
+        <v>0.4478825678163185</v>
       </c>
       <c r="Q5">
-        <v>3991.495805923862</v>
+        <v>4028.716716654735</v>
       </c>
       <c r="R5">
-        <v>3991.495805923862</v>
+        <v>36258.45044989262</v>
       </c>
       <c r="S5">
-        <v>0.09138632900615393</v>
+        <v>0.08838039211248014</v>
       </c>
       <c r="T5">
-        <v>0.09138632900615393</v>
+        <v>0.08838039211248015</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>126.165566641596</v>
+        <v>126.9318136666667</v>
       </c>
       <c r="H6">
-        <v>126.165566641596</v>
+        <v>380.795441</v>
       </c>
       <c r="I6">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115714</v>
       </c>
       <c r="J6">
-        <v>0.2013186498944311</v>
+        <v>0.1973293860115715</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.65974409581267</v>
+        <v>4.057317666666666</v>
       </c>
       <c r="N6">
-        <v>3.65974409581267</v>
+        <v>12.171953</v>
       </c>
       <c r="O6">
-        <v>0.05251134073154316</v>
+        <v>0.0572541440551436</v>
       </c>
       <c r="P6">
-        <v>0.05251134073154316</v>
+        <v>0.0572541440551436</v>
       </c>
       <c r="Q6">
-        <v>461.7336876114409</v>
+        <v>515.002690051808</v>
       </c>
       <c r="R6">
-        <v>461.7336876114409</v>
+        <v>4635.024210466272</v>
       </c>
       <c r="S6">
-        <v>0.01057151222022072</v>
+        <v>0.01129792509301955</v>
       </c>
       <c r="T6">
-        <v>0.01057151222022072</v>
+        <v>0.01129792509301955</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H7">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="I7">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J7">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.67625449008554</v>
+        <v>6.291888333333334</v>
       </c>
       <c r="N7">
-        <v>5.67625449008554</v>
+        <v>18.875665</v>
       </c>
       <c r="O7">
-        <v>0.08144496604253573</v>
+        <v>0.08878690568774233</v>
       </c>
       <c r="P7">
-        <v>0.08144496604253573</v>
+        <v>0.08878690568774233</v>
       </c>
       <c r="Q7">
-        <v>857.2224926411309</v>
+        <v>958.8486837495806</v>
       </c>
       <c r="R7">
-        <v>857.2224926411309</v>
+        <v>8629.638153746226</v>
       </c>
       <c r="S7">
-        <v>0.01962633071735014</v>
+        <v>0.02103484275675022</v>
       </c>
       <c r="T7">
-        <v>0.01962633071735014</v>
+        <v>0.02103484275675023</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H8">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="I8">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J8">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.28547435973388</v>
+        <v>2.300815</v>
       </c>
       <c r="N8">
-        <v>2.28547435973388</v>
+        <v>6.902445</v>
       </c>
       <c r="O8">
-        <v>0.0327928182122093</v>
+        <v>0.03246755720817405</v>
       </c>
       <c r="P8">
-        <v>0.0327928182122093</v>
+        <v>0.03246755720817405</v>
       </c>
       <c r="Q8">
-        <v>345.1501392230468</v>
+        <v>350.6313712869917</v>
       </c>
       <c r="R8">
-        <v>345.1501392230468</v>
+        <v>3155.682341582925</v>
       </c>
       <c r="S8">
-        <v>0.007902301721761814</v>
+        <v>0.007692012186702656</v>
       </c>
       <c r="T8">
-        <v>0.007902301721761814</v>
+        <v>0.007692012186702657</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H9">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="I9">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J9">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>26.4359169460722</v>
+        <v>26.47580733333334</v>
       </c>
       <c r="N9">
-        <v>26.4359169460722</v>
+        <v>79.42742200000001</v>
       </c>
       <c r="O9">
-        <v>0.3793121611683938</v>
+        <v>0.3736088252326215</v>
       </c>
       <c r="P9">
-        <v>0.3793121611683938</v>
+        <v>0.3736088252326215</v>
       </c>
       <c r="Q9">
-        <v>3992.326746333817</v>
+        <v>4034.765346721426</v>
       </c>
       <c r="R9">
-        <v>3992.326746333817</v>
+        <v>36312.88812049283</v>
       </c>
       <c r="S9">
-        <v>0.09140535360178947</v>
+        <v>0.0885130845638574</v>
       </c>
       <c r="T9">
-        <v>0.09140535360178947</v>
+        <v>0.08851308456385742</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H10">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="I10">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J10">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.6369665049948</v>
+        <v>31.73921966666667</v>
       </c>
       <c r="N10">
-        <v>31.6369665049948</v>
+        <v>95.217659</v>
       </c>
       <c r="O10">
-        <v>0.453938713845318</v>
+        <v>0.4478825678163185</v>
       </c>
       <c r="P10">
-        <v>0.453938713845318</v>
+        <v>0.4478825678163185</v>
       </c>
       <c r="Q10">
-        <v>4777.784247409054</v>
+        <v>4836.880025252959</v>
       </c>
       <c r="R10">
-        <v>4777.784247409054</v>
+        <v>43531.92022727663</v>
       </c>
       <c r="S10">
-        <v>0.1093886062729016</v>
+        <v>0.1061095587747962</v>
       </c>
       <c r="T10">
-        <v>0.1093886062729016</v>
+        <v>0.1061095587747962</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>151.019038018539</v>
+        <v>152.3944216666667</v>
       </c>
       <c r="H11">
-        <v>151.019038018539</v>
+        <v>457.183265</v>
       </c>
       <c r="I11">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="J11">
-        <v>0.2409765964798859</v>
+        <v>0.2369137948193439</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.65974409581267</v>
+        <v>4.057317666666666</v>
       </c>
       <c r="N11">
-        <v>3.65974409581267</v>
+        <v>12.171953</v>
       </c>
       <c r="O11">
-        <v>0.05251134073154316</v>
+        <v>0.0572541440551436</v>
       </c>
       <c r="P11">
-        <v>0.05251134073154316</v>
+        <v>0.0572541440551436</v>
       </c>
       <c r="Q11">
-        <v>552.6910327436573</v>
+        <v>618.312579329616</v>
       </c>
       <c r="R11">
-        <v>552.6910327436573</v>
+        <v>5564.813213966544</v>
       </c>
       <c r="S11">
-        <v>0.01265400416608287</v>
+        <v>0.01356429653723745</v>
       </c>
       <c r="T11">
-        <v>0.01265400416608287</v>
+        <v>0.01356429653723745</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="H12">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I12">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J12">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.67625449008554</v>
+        <v>6.291888333333334</v>
       </c>
       <c r="N12">
-        <v>5.67625449008554</v>
+        <v>18.875665</v>
       </c>
       <c r="O12">
-        <v>0.08144496604253573</v>
+        <v>0.08878690568774233</v>
       </c>
       <c r="P12">
-        <v>0.08144496604253573</v>
+        <v>0.08878690568774233</v>
       </c>
       <c r="Q12">
-        <v>1141.028255368851</v>
+        <v>1299.740093845928</v>
       </c>
       <c r="R12">
-        <v>1141.028255368851</v>
+        <v>11697.66084461335</v>
       </c>
       <c r="S12">
-        <v>0.0261241370705438</v>
+        <v>0.02851318353150406</v>
       </c>
       <c r="T12">
-        <v>0.0261241370705438</v>
+        <v>0.02851318353150406</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="H13">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I13">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J13">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.28547435973388</v>
+        <v>2.300815</v>
       </c>
       <c r="N13">
-        <v>2.28547435973388</v>
+        <v>6.902445</v>
       </c>
       <c r="O13">
-        <v>0.0327928182122093</v>
+        <v>0.03246755720817405</v>
       </c>
       <c r="P13">
-        <v>0.0327928182122093</v>
+        <v>0.03246755720817405</v>
       </c>
       <c r="Q13">
-        <v>459.4210541356632</v>
+        <v>475.288394452135</v>
       </c>
       <c r="R13">
-        <v>459.4210541356632</v>
+        <v>4277.595550069214</v>
       </c>
       <c r="S13">
-        <v>0.01051856387855532</v>
+        <v>0.01042668860149364</v>
       </c>
       <c r="T13">
-        <v>0.01051856387855532</v>
+        <v>0.01042668860149364</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="H14">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I14">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J14">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>26.4359169460722</v>
+        <v>26.47580733333334</v>
       </c>
       <c r="N14">
-        <v>26.4359169460722</v>
+        <v>79.42742200000001</v>
       </c>
       <c r="O14">
-        <v>0.3793121611683938</v>
+        <v>0.3736088252326215</v>
       </c>
       <c r="P14">
-        <v>0.3793121611683938</v>
+        <v>0.3736088252326215</v>
       </c>
       <c r="Q14">
-        <v>5314.090170681906</v>
+        <v>5469.211544293679</v>
       </c>
       <c r="R14">
-        <v>5314.090170681906</v>
+        <v>49222.90389864311</v>
       </c>
       <c r="S14">
-        <v>0.1216674691191117</v>
+        <v>0.1199813972604527</v>
       </c>
       <c r="T14">
-        <v>0.1216674691191117</v>
+        <v>0.1199813972604527</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="H15">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I15">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J15">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>31.6369665049948</v>
+        <v>31.73921966666667</v>
       </c>
       <c r="N15">
-        <v>31.6369665049948</v>
+        <v>95.217659</v>
       </c>
       <c r="O15">
-        <v>0.453938713845318</v>
+        <v>0.4478825678163185</v>
       </c>
       <c r="P15">
-        <v>0.453938713845318</v>
+        <v>0.4478825678163185</v>
       </c>
       <c r="Q15">
-        <v>6359.593770753042</v>
+        <v>6556.495309937403</v>
       </c>
       <c r="R15">
-        <v>6359.593770753042</v>
+        <v>59008.45778943663</v>
       </c>
       <c r="S15">
-        <v>0.1456045444960717</v>
+        <v>0.1438337979884242</v>
       </c>
       <c r="T15">
-        <v>0.1456045444960717</v>
+        <v>0.1438337979884242</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>201.01781154489</v>
+        <v>206.573929</v>
       </c>
       <c r="H16">
-        <v>201.01781154489</v>
+        <v>619.7217869999999</v>
       </c>
       <c r="I16">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="J16">
-        <v>0.3207581553524144</v>
+        <v>0.321141764212203</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.65974409581267</v>
+        <v>4.057317666666666</v>
       </c>
       <c r="N16">
-        <v>3.65974409581267</v>
+        <v>12.171953</v>
       </c>
       <c r="O16">
-        <v>0.05251134073154316</v>
+        <v>0.0572541440551436</v>
       </c>
       <c r="P16">
-        <v>0.05251134073154316</v>
+        <v>0.0572541440551436</v>
       </c>
       <c r="Q16">
-        <v>735.6737489545952</v>
+        <v>838.1360516044456</v>
       </c>
       <c r="R16">
-        <v>735.6737489545952</v>
+        <v>7543.22446444001</v>
       </c>
       <c r="S16">
-        <v>0.01684344078813189</v>
+        <v>0.01838669683032843</v>
       </c>
       <c r="T16">
-        <v>0.01684344078813189</v>
+        <v>0.01838669683032843</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H17">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="I17">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J17">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.67625449008554</v>
+        <v>6.291888333333334</v>
       </c>
       <c r="N17">
-        <v>5.67625449008554</v>
+        <v>18.875665</v>
       </c>
       <c r="O17">
-        <v>0.08144496604253573</v>
+        <v>0.08878690568774233</v>
       </c>
       <c r="P17">
-        <v>0.08144496604253573</v>
+        <v>0.08878690568774233</v>
       </c>
       <c r="Q17">
-        <v>755.0589010423051</v>
+        <v>892.0290058224539</v>
       </c>
       <c r="R17">
-        <v>755.0589010423051</v>
+        <v>8028.261052402086</v>
       </c>
       <c r="S17">
-        <v>0.01728726885977676</v>
+        <v>0.01956897912041771</v>
       </c>
       <c r="T17">
-        <v>0.01728726885977676</v>
+        <v>0.01956897912041771</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H18">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="I18">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J18">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.28547435973388</v>
+        <v>2.300815</v>
       </c>
       <c r="N18">
-        <v>2.28547435973388</v>
+        <v>6.902445</v>
       </c>
       <c r="O18">
-        <v>0.0327928182122093</v>
+        <v>0.03246755720817405</v>
       </c>
       <c r="P18">
-        <v>0.0327928182122093</v>
+        <v>0.03246755720817405</v>
       </c>
       <c r="Q18">
-        <v>304.0152201482819</v>
+        <v>326.1967804098117</v>
       </c>
       <c r="R18">
-        <v>304.0152201482819</v>
+        <v>2935.771023688305</v>
       </c>
       <c r="S18">
-        <v>0.006960507108667413</v>
+        <v>0.007155975807201051</v>
       </c>
       <c r="T18">
-        <v>0.006960507108667413</v>
+        <v>0.007155975807201052</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H19">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="I19">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J19">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>26.4359169460722</v>
+        <v>26.47580733333334</v>
       </c>
       <c r="N19">
-        <v>26.4359169460722</v>
+        <v>79.42742200000001</v>
       </c>
       <c r="O19">
-        <v>0.3793121611683938</v>
+        <v>0.3736088252326215</v>
       </c>
       <c r="P19">
-        <v>0.3793121611683938</v>
+        <v>0.3736088252326215</v>
       </c>
       <c r="Q19">
-        <v>3516.522106648203</v>
+        <v>3753.593014164032</v>
       </c>
       <c r="R19">
-        <v>3516.522106648203</v>
+        <v>33782.33712747628</v>
       </c>
       <c r="S19">
-        <v>0.08051168329392358</v>
+        <v>0.08234483726568609</v>
       </c>
       <c r="T19">
-        <v>0.08051168329392358</v>
+        <v>0.08234483726568609</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H20">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="I20">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J20">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>31.6369665049948</v>
+        <v>31.73921966666667</v>
       </c>
       <c r="N20">
-        <v>31.6369665049948</v>
+        <v>95.217659</v>
       </c>
       <c r="O20">
-        <v>0.453938713845318</v>
+        <v>0.4478825678163185</v>
       </c>
       <c r="P20">
-        <v>0.453938713845318</v>
+        <v>0.4478825678163185</v>
       </c>
       <c r="Q20">
-        <v>4208.368952325392</v>
+        <v>4499.81040109111</v>
       </c>
       <c r="R20">
-        <v>4208.368952325392</v>
+        <v>40498.29360981999</v>
       </c>
       <c r="S20">
-        <v>0.09635169579427279</v>
+        <v>0.09871505882659252</v>
       </c>
       <c r="T20">
-        <v>0.09635169579427279</v>
+        <v>0.09871505882659252</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>133.020621672466</v>
+        <v>141.7744496666667</v>
       </c>
       <c r="H21">
-        <v>133.020621672466</v>
+        <v>425.323349</v>
       </c>
       <c r="I21">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114384</v>
       </c>
       <c r="J21">
-        <v>0.2122570577382063</v>
+        <v>0.2204038869114385</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.65974409581267</v>
+        <v>4.057317666666666</v>
       </c>
       <c r="N21">
-        <v>3.65974409581267</v>
+        <v>12.171953</v>
       </c>
       <c r="O21">
-        <v>0.05251134073154316</v>
+        <v>0.0572541440551436</v>
       </c>
       <c r="P21">
-        <v>0.05251134073154316</v>
+        <v>0.0572541440551436</v>
       </c>
       <c r="Q21">
-        <v>486.8214347871384</v>
+        <v>575.2239793145108</v>
       </c>
       <c r="R21">
-        <v>486.8214347871384</v>
+        <v>5177.015813830596</v>
       </c>
       <c r="S21">
-        <v>0.01114590268156578</v>
+        <v>0.01261903589154108</v>
       </c>
       <c r="T21">
-        <v>0.01114590268156578</v>
+        <v>0.01261903589154108</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="H22">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="I22">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="J22">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.67625449008554</v>
+        <v>6.291888333333334</v>
       </c>
       <c r="N22">
-        <v>5.67625449008554</v>
+        <v>18.875665</v>
       </c>
       <c r="O22">
-        <v>0.08144496604253573</v>
+        <v>0.08878690568774233</v>
       </c>
       <c r="P22">
-        <v>0.08144496604253573</v>
+        <v>0.08878690568774233</v>
       </c>
       <c r="Q22">
-        <v>87.82773841441067</v>
+        <v>97.9885811635211</v>
       </c>
       <c r="R22">
-        <v>87.82773841441067</v>
+        <v>881.89723047169</v>
       </c>
       <c r="S22">
-        <v>0.002010838790483965</v>
+        <v>0.002149634693840841</v>
       </c>
       <c r="T22">
-        <v>0.002010838790483965</v>
+        <v>0.002149634693840842</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="H23">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="I23">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="J23">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.28547435973388</v>
+        <v>2.300815</v>
       </c>
       <c r="N23">
-        <v>2.28547435973388</v>
+        <v>6.902445</v>
       </c>
       <c r="O23">
-        <v>0.0327928182122093</v>
+        <v>0.03246755720817405</v>
       </c>
       <c r="P23">
-        <v>0.0327928182122093</v>
+        <v>0.03246755720817405</v>
       </c>
       <c r="Q23">
-        <v>35.36276334511651</v>
+        <v>35.83242190986333</v>
       </c>
       <c r="R23">
-        <v>35.36276334511651</v>
+        <v>322.49179718877</v>
       </c>
       <c r="S23">
-        <v>0.0008096396145092735</v>
+        <v>0.0007860774835921408</v>
       </c>
       <c r="T23">
-        <v>0.0008096396145092735</v>
+        <v>0.0007860774835921409</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="H24">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="I24">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="J24">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>26.4359169460722</v>
+        <v>26.47580733333334</v>
       </c>
       <c r="N24">
-        <v>26.4359169460722</v>
+        <v>79.42742200000001</v>
       </c>
       <c r="O24">
-        <v>0.3793121611683938</v>
+        <v>0.3736088252326215</v>
       </c>
       <c r="P24">
-        <v>0.3793121611683938</v>
+        <v>0.3736088252326215</v>
       </c>
       <c r="Q24">
-        <v>409.0385310137366</v>
+        <v>412.3288046940991</v>
       </c>
       <c r="R24">
-        <v>409.0385310137366</v>
+        <v>3710.959242246892</v>
       </c>
       <c r="S24">
-        <v>0.009365042978609173</v>
+        <v>0.009045506050967598</v>
       </c>
       <c r="T24">
-        <v>0.009365042978609173</v>
+        <v>0.0090455060509676</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="H25">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="I25">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="J25">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>31.6369665049948</v>
+        <v>31.73921966666667</v>
       </c>
       <c r="N25">
-        <v>31.6369665049948</v>
+        <v>95.217659</v>
       </c>
       <c r="O25">
-        <v>0.453938713845318</v>
+        <v>0.4478825678163185</v>
       </c>
       <c r="P25">
-        <v>0.453938713845318</v>
+        <v>0.4478825678163185</v>
       </c>
       <c r="Q25">
-        <v>489.5135028352618</v>
+        <v>494.3001111283749</v>
       </c>
       <c r="R25">
-        <v>489.5135028352618</v>
+        <v>4448.701000155374</v>
       </c>
       <c r="S25">
-        <v>0.01120753827591806</v>
+        <v>0.01084376011402547</v>
       </c>
       <c r="T25">
-        <v>0.01120753827591806</v>
+        <v>0.01084376011402547</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.4728331098994</v>
+        <v>15.57379533333333</v>
       </c>
       <c r="H26">
-        <v>15.4728331098994</v>
+        <v>46.721386</v>
       </c>
       <c r="I26">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544314</v>
       </c>
       <c r="J26">
-        <v>0.02468954053506238</v>
+        <v>0.02421116804544315</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.65974409581267</v>
+        <v>4.057317666666666</v>
       </c>
       <c r="N26">
-        <v>3.65974409581267</v>
+        <v>12.171953</v>
       </c>
       <c r="O26">
-        <v>0.05251134073154316</v>
+        <v>0.0572541440551436</v>
       </c>
       <c r="P26">
-        <v>0.05251134073154316</v>
+        <v>0.0572541440551436</v>
       </c>
       <c r="Q26">
-        <v>56.62660961944912</v>
+        <v>63.1878349429842</v>
       </c>
       <c r="R26">
-        <v>56.62660961944912</v>
+        <v>568.6905144868579</v>
       </c>
       <c r="S26">
-        <v>0.001296480875541907</v>
+        <v>0.001386189703017091</v>
       </c>
       <c r="T26">
-        <v>0.001296480875541907</v>
+        <v>0.001386189703017092</v>
       </c>
     </row>
   </sheetData>
